--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3774.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3774.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.500486838636406</v>
+        <v>0.2933498322963715</v>
       </c>
       <c r="B1">
-        <v>2.73887251569799</v>
+        <v>1.938002228736877</v>
       </c>
       <c r="C1">
-        <v>3.20311012315889</v>
+        <v>4.34821605682373</v>
       </c>
       <c r="D1">
-        <v>3.765992461458531</v>
+        <v>1.599398612976074</v>
       </c>
       <c r="E1">
-        <v>1.86918214868948</v>
+        <v>1.048843264579773</v>
       </c>
     </row>
   </sheetData>
